--- a/batt_sust_model/data/process_product_type_contribution.xlsx
+++ b/batt_sust_model/data/process_product_type_contribution.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/b8061896_newcastle_ac_uk/Documents/Python/Projects/Bat_Sust_Model/Batt_Sust_Model/batt_sust_model/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/b8061896_newcastle_ac_uk/Documents/Python/Projects/Bat_Sust_Model/batt_sust_model/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="408" documentId="114_{938897A9-1E2E-4BD6-B7E2-7493087798B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E9793AA-AD74-4AF2-81CC-C4B9F3BDDF95}"/>
+  <xr:revisionPtr revIDLastSave="417" documentId="114_{938897A9-1E2E-4BD6-B7E2-7493087798B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C249F588-5A85-4EEC-BE0F-F21F2B022A51}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A5488E6F-B756-41FB-A257-C57D211599D6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A5488E6F-B756-41FB-A257-C57D211599D6}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="284">
   <si>
     <t>COMPONENT CATEGORY - TYPE MAPPING</t>
   </si>
@@ -898,12 +898,6 @@
   </si>
   <si>
     <t>aluminium foil</t>
-  </si>
-  <si>
-    <t>cell interconnect</t>
-  </si>
-  <si>
-    <t>cooling system</t>
   </si>
 </sst>
 </file>
@@ -1326,9 +1320,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF24E8D-A171-42D8-AED8-150D54E868F7}">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2910,8 +2904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2EFBFF-CF03-48B3-B19E-4A989B206417}">
   <dimension ref="A1:F145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:XFD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3638,21 +3632,21 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>244</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C66" t="s">
+        <v>279</v>
+      </c>
+      <c r="B66" t="s">
+        <v>211</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C67" t="s">
         <v>238</v>
@@ -3663,7 +3657,7 @@
         <v>245</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C68" t="s">
         <v>238</v>
@@ -4526,15 +4520,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2ABB33-FBF1-4C1B-A90F-3CEAD80F193A}">
-  <dimension ref="A1:C145"/>
+  <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="76.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -4552,21 +4546,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>175</v>
       </c>
       <c r="C3" t="s">
         <v>198</v>
@@ -4574,10 +4568,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
         <v>198</v>
@@ -4585,21 +4579,21 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>75</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
       </c>
       <c r="C6" t="s">
         <v>141</v>
@@ -4607,10 +4601,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
         <v>141</v>
@@ -4618,10 +4612,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
         <v>141</v>
@@ -4739,10 +4733,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
         <v>141</v>
@@ -4750,10 +4744,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>241</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>205</v>
+        <v>113</v>
       </c>
       <c r="C20" t="s">
         <v>238</v>
@@ -4761,10 +4755,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="B21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C21" t="s">
         <v>238</v>
@@ -4772,10 +4766,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>216</v>
       </c>
       <c r="C22" t="s">
         <v>238</v>
@@ -4783,10 +4777,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="B23" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C23" t="s">
         <v>238</v>
@@ -4805,10 +4799,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>116</v>
+        <v>53</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="C25" t="s">
         <v>141</v>
@@ -4816,10 +4810,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>141</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>208</v>
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>116</v>
       </c>
       <c r="C26" t="s">
         <v>141</v>
@@ -4827,54 +4821,54 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>117</v>
+        <v>212</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="C29" t="s">
-        <v>199</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="C30" t="s">
-        <v>199</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>85</v>
+        <v>214</v>
       </c>
       <c r="C31" t="s">
         <v>199</v>
@@ -4882,10 +4876,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
         <v>199</v>
@@ -4893,10 +4887,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
         <v>199</v>
@@ -4904,10 +4898,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s">
         <v>199</v>
@@ -4915,10 +4909,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
         <v>199</v>
@@ -4926,10 +4920,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>89</v>
+        <v>14</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="C36" t="s">
         <v>199</v>
@@ -4937,32 +4931,32 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>212</v>
+        <v>16</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>141</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>141</v>
-      </c>
-      <c r="B39" t="s">
-        <v>177</v>
+        <v>17</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="C39" t="s">
         <v>141</v>
@@ -4970,10 +4964,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>141</v>
-      </c>
-      <c r="B40" t="s">
-        <v>178</v>
+        <v>18</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="C40" t="s">
         <v>141</v>
@@ -4981,32 +4975,32 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>141</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>125</v>
+        <v>26</v>
+      </c>
+      <c r="B42" t="s">
+        <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>141</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>90</v>
+        <v>27</v>
+      </c>
+      <c r="B43" t="s">
+        <v>92</v>
       </c>
       <c r="C43" t="s">
         <v>283</v>
@@ -5014,10 +5008,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
         <v>283</v>
@@ -5025,10 +5019,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" t="s">
-        <v>92</v>
+        <v>29</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="C45" t="s">
         <v>283</v>
@@ -5036,10 +5030,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" t="s">
-        <v>93</v>
+        <v>30</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C46" t="s">
         <v>283</v>
@@ -5047,10 +5041,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>94</v>
+        <v>31</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="C47" t="s">
         <v>283</v>
@@ -5058,10 +5052,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="C48" t="s">
         <v>283</v>
@@ -5069,10 +5063,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="C49" t="s">
         <v>283</v>
@@ -5080,32 +5074,32 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>157</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>155</v>
+        <v>57</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="C50" t="s">
-        <v>283</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="C51" t="s">
-        <v>283</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>179</v>
+        <v>99</v>
       </c>
       <c r="C52" t="s">
         <v>141</v>
@@ -5113,54 +5107,54 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="C53" t="s">
-        <v>141</v>
+        <v>277</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C54" t="s">
-        <v>141</v>
+        <v>282</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>123</v>
+        <v>68</v>
+      </c>
+      <c r="B55" t="s">
+        <v>98</v>
       </c>
       <c r="C55" t="s">
-        <v>141</v>
+        <v>283</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="C56" t="s">
-        <v>284</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="C57" t="s">
         <v>141</v>
@@ -5168,395 +5162,395 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C58" t="s">
-        <v>141</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="C59" t="s">
-        <v>282</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>68</v>
-      </c>
-      <c r="B60" t="s">
-        <v>98</v>
+        <v>49</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="C60" t="s">
-        <v>283</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>126</v>
+        <v>163</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="C61" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>48</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>127</v>
+        <v>161</v>
+      </c>
+      <c r="B62" t="s">
+        <v>160</v>
       </c>
       <c r="C62" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="C63" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>161</v>
-      </c>
-      <c r="B64" t="s">
-        <v>160</v>
+        <v>244</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="C64" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>45</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>72</v>
+        <v>245</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="C65" t="s">
-        <v>141</v>
+        <v>238</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>244</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C66" t="s">
-        <v>285</v>
+        <v>279</v>
+      </c>
+      <c r="B66" t="s">
+        <v>211</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>207</v>
+        <v>164</v>
       </c>
       <c r="C67" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C68" t="s">
-        <v>285</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>203</v>
+        <v>61</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>203</v>
+        <v>129</v>
       </c>
       <c r="C69" t="s">
-        <v>238</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>101</v>
+        <v>255</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>240</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>102</v>
+        <v>255</v>
+      </c>
+      <c r="B71" t="s">
+        <v>183</v>
       </c>
       <c r="C71" t="s">
-        <v>33</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>103</v>
+        <v>255</v>
+      </c>
+      <c r="B72" t="s">
+        <v>224</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>240</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>270</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>139</v>
+        <v>255</v>
+      </c>
+      <c r="B73" t="s">
+        <v>230</v>
       </c>
       <c r="C73" t="s">
-        <v>141</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>141</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>181</v>
+        <v>255</v>
+      </c>
+      <c r="B74" t="s">
+        <v>226</v>
       </c>
       <c r="C74" t="s">
-        <v>141</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>142</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>142</v>
+        <v>255</v>
+      </c>
+      <c r="B75" t="s">
+        <v>227</v>
       </c>
       <c r="C75" t="s">
-        <v>141</v>
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>61</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>129</v>
+        <v>255</v>
+      </c>
+      <c r="B76" t="s">
+        <v>228</v>
       </c>
       <c r="C76" t="s">
-        <v>141</v>
+        <v>240</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="B77" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="C77" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>62</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>130</v>
+        <v>69</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="C78" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>144</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>149</v>
+        <v>70</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="C79" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C80" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>163</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>162</v>
+        <v>62</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="C81" t="s">
-        <v>199</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>246</v>
+        <v>142</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="C82" t="s">
-        <v>200</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>247</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>165</v>
+        <v>271</v>
+      </c>
+      <c r="B83" t="s">
+        <v>106</v>
       </c>
       <c r="C83" t="s">
-        <v>199</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>248</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>166</v>
+        <v>256</v>
+      </c>
+      <c r="B84" t="s">
+        <v>232</v>
       </c>
       <c r="C84" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>249</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>199</v>
+        <v>256</v>
+      </c>
+      <c r="B85" t="s">
+        <v>184</v>
+      </c>
+      <c r="C85" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>250</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>168</v>
+        <v>256</v>
+      </c>
+      <c r="B86" t="s">
+        <v>231</v>
       </c>
       <c r="C86" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>251</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>217</v>
+        <v>256</v>
+      </c>
+      <c r="B87" t="s">
+        <v>237</v>
       </c>
       <c r="C87" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>252</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>169</v>
+        <v>256</v>
+      </c>
+      <c r="B88" t="s">
+        <v>233</v>
       </c>
       <c r="C88" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>145</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>148</v>
+        <v>256</v>
+      </c>
+      <c r="B89" t="s">
+        <v>234</v>
       </c>
       <c r="C89" t="s">
-        <v>141</v>
+        <v>240</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>146</v>
+        <v>256</v>
       </c>
       <c r="B90" t="s">
-        <v>147</v>
+        <v>235</v>
       </c>
       <c r="C90" t="s">
-        <v>141</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>253</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>210</v>
+        <v>256</v>
+      </c>
+      <c r="B91" t="s">
+        <v>236</v>
       </c>
       <c r="C91" t="s">
-        <v>141</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>260</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>182</v>
+        <v>202</v>
+      </c>
+      <c r="B92" t="s">
+        <v>202</v>
       </c>
       <c r="C92" t="s">
-        <v>141</v>
+        <v>238</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>254</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>159</v>
+        <v>63</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="C93" t="s">
         <v>141</v>
@@ -5564,219 +5558,219 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="C94" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>255</v>
-      </c>
-      <c r="B95" t="s">
-        <v>183</v>
+        <v>248</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="C95" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>255</v>
-      </c>
-      <c r="B96" t="s">
-        <v>224</v>
-      </c>
-      <c r="C96" t="s">
-        <v>240</v>
+        <v>249</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>255</v>
-      </c>
-      <c r="B97" t="s">
-        <v>230</v>
+        <v>250</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="C97" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>255</v>
-      </c>
-      <c r="B98" t="s">
-        <v>226</v>
+        <v>38</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="C98" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>255</v>
-      </c>
-      <c r="B99" t="s">
-        <v>227</v>
+        <v>251</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="C99" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>255</v>
+        <v>39</v>
       </c>
       <c r="B100" t="s">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="C100" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>255</v>
+        <v>46</v>
       </c>
       <c r="B101" t="s">
-        <v>229</v>
+        <v>109</v>
       </c>
       <c r="C101" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B102" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="C102" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B103" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="C103" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B104" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C104" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>256</v>
+        <v>36</v>
       </c>
       <c r="B105" t="s">
-        <v>237</v>
+        <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>256</v>
+        <v>37</v>
       </c>
       <c r="B106" t="s">
-        <v>233</v>
+        <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B107" t="s">
-        <v>234</v>
+        <v>170</v>
       </c>
       <c r="C107" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>256</v>
-      </c>
-      <c r="B108" t="s">
-        <v>235</v>
+        <v>252</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="C108" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B109" t="s">
-        <v>236</v>
+        <v>171</v>
       </c>
       <c r="C109" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="B110" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C110" t="s">
-        <v>141</v>
+        <v>199</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B111" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C111" t="s">
-        <v>141</v>
+        <v>199</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="B112" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="C112" t="s">
-        <v>141</v>
+        <v>199</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>54</v>
-      </c>
-      <c r="B113" t="s">
-        <v>112</v>
+        <v>141</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="C113" t="s">
         <v>141</v>
@@ -5784,10 +5778,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>57</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>122</v>
+        <v>141</v>
+      </c>
+      <c r="B114" t="s">
+        <v>177</v>
       </c>
       <c r="C114" t="s">
         <v>141</v>
@@ -5795,10 +5789,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>53</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>115</v>
+        <v>141</v>
+      </c>
+      <c r="B115" t="s">
+        <v>178</v>
       </c>
       <c r="C115" t="s">
         <v>141</v>
@@ -5806,208 +5800,208 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>38</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>107</v>
+        <v>141</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="C116" t="s">
-        <v>238</v>
+        <v>141</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>39</v>
-      </c>
-      <c r="B117" t="s">
-        <v>108</v>
+        <v>141</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="C117" t="s">
-        <v>275</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>261</v>
-      </c>
-      <c r="B118" t="s">
-        <v>215</v>
+        <v>141</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="C118" t="s">
-        <v>238</v>
+        <v>141</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="B119" t="s">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="C119" t="s">
-        <v>238</v>
+        <v>141</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>262</v>
+        <v>141</v>
       </c>
       <c r="B120" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="C120" t="s">
-        <v>238</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>263</v>
+        <v>141</v>
       </c>
       <c r="B121" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="C121" t="s">
-        <v>238</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="B122" t="s">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="C122" t="s">
-        <v>238</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="B123" t="s">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="C123" t="s">
-        <v>238</v>
+        <v>141</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>264</v>
+        <v>43</v>
       </c>
       <c r="B124" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="C124" t="s">
-        <v>199</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="B125" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="C125" t="s">
-        <v>199</v>
+        <v>277</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>266</v>
-      </c>
-      <c r="B126" t="s">
-        <v>172</v>
+        <v>145</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C126" t="s">
-        <v>199</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>267</v>
+        <v>146</v>
       </c>
       <c r="B127" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="C127" t="s">
-        <v>199</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>268</v>
+        <v>50</v>
       </c>
       <c r="B128" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="C128" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B129" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C129" t="s">
-        <v>141</v>
+        <v>196</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B130" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C130" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="B131" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C131" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>51</v>
+        <v>209</v>
       </c>
       <c r="B132" t="s">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="C132" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B133" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C133" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>141</v>
-      </c>
-      <c r="B134" t="s">
-        <v>188</v>
+        <v>65</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -6015,10 +6009,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>143</v>
-      </c>
-      <c r="B135" t="s">
-        <v>143</v>
+        <v>253</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="C135" t="s">
         <v>141</v>
@@ -6026,10 +6020,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="B136" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="C136" t="s">
         <v>141</v>
@@ -6037,10 +6031,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="B137" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="C137" t="s">
         <v>141</v>
@@ -6048,10 +6042,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>66</v>
+        <v>259</v>
       </c>
       <c r="B138" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="C138" t="s">
         <v>141</v>
@@ -6059,10 +6053,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>141</v>
-      </c>
-      <c r="B139" t="s">
-        <v>189</v>
+        <v>260</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="C139" t="s">
         <v>141</v>
@@ -6070,10 +6064,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>141</v>
-      </c>
-      <c r="B140" t="s">
-        <v>190</v>
+        <v>270</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="C140" t="s">
         <v>141</v>
@@ -6081,10 +6075,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>141</v>
-      </c>
-      <c r="B141" t="s">
-        <v>191</v>
+        <v>254</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="C141" t="s">
         <v>141</v>
@@ -6092,52 +6086,19 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="B142" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="C142" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>194</v>
-      </c>
-      <c r="B143" t="s">
-        <v>194</v>
-      </c>
-      <c r="C143" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>195</v>
-      </c>
-      <c r="B144" t="s">
-        <v>195</v>
-      </c>
-      <c r="C144" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>193</v>
-      </c>
-      <c r="B145" t="s">
-        <v>193</v>
-      </c>
-      <c r="C145" t="s">
-        <v>193</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{1A2ABB33-FBF1-4C1B-A90F-3CEAD80F193A}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C119">
-      <sortCondition ref="B1"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C143">
+      <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
